--- a/trunk/ teamfrienly/7Test Case/TestCase.xlsx
+++ b/trunk/ teamfrienly/7Test Case/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="11280" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="11280" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mượn sách" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Tra cứu sách" sheetId="3" r:id="rId3"/>
     <sheet name="Tra cứu thẻ" sheetId="4" r:id="rId4"/>
     <sheet name="Thông tin sách" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Thẻ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="123">
   <si>
     <t>Nhấn  "mượn sách"</t>
   </si>
@@ -259,6 +259,135 @@
   </si>
   <si>
     <t>Hiền thị một thẻ có tất cả các thuộc tính bằng hoặc bị ràng buộc bởi các giá trị input</t>
+  </si>
+  <si>
+    <t>Nhấn  "Thêm"</t>
+  </si>
+  <si>
+    <t>Không nhập ngày cấp</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo nhập ngày tháng đầy đủ</t>
+  </si>
+  <si>
+    <t>Không nhập ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Không nhập ngày sinh</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo nhập mã  thẻ khác</t>
+  </si>
+  <si>
+    <t>Nhập số và kí tự lạ vào tên</t>
+  </si>
+  <si>
+    <t>Không cho nhập</t>
+  </si>
+  <si>
+    <t>Nhập chữ và kí tự lạ vào ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Nhập chữ và kí tự lạ vào ngày sinh</t>
+  </si>
+  <si>
+    <t>Nhập chữ và kí tự lạ vào ngày cấp</t>
+  </si>
+  <si>
+    <t>Nhập mã thẻ là khoảng trắng</t>
+  </si>
+  <si>
+    <t>Nhấn  "Cập Nhật"</t>
+  </si>
+  <si>
+    <t>Không nhập Mã Sách</t>
+  </si>
+  <si>
+    <t>Không nhập tên sách</t>
+  </si>
+  <si>
+    <t>Nhấn  "Nhập sách"</t>
+  </si>
+  <si>
+    <t>Nhập tên sách</t>
+  </si>
+  <si>
+    <t>Nhấn  "nhập sách"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mã sách đã có trong database </t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo sách đã tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo nhập tên sách</t>
+  </si>
+  <si>
+    <t>không nhập tên sách</t>
+  </si>
+  <si>
+    <t>Không nhập giá sách</t>
+  </si>
+  <si>
+    <t>nhập tên sách</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo sách nhập giá sách</t>
+  </si>
+  <si>
+    <t>nhập giá sách</t>
+  </si>
+  <si>
+    <t>Thêm sách thành công</t>
+  </si>
+  <si>
+    <t>Nhấn  "cập nhật"</t>
+  </si>
+  <si>
+    <t>Thông báo nhập tên sách</t>
+  </si>
+  <si>
+    <t>nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <t>Thông báo nhập giá sách</t>
+  </si>
+  <si>
+    <t>Cập nhật lại sách theo các thuộc tính đã chọn</t>
+  </si>
+  <si>
+    <t>Chọn sách đang mượn</t>
+  </si>
+  <si>
+    <t>Thông báo sách đang mượn</t>
+  </si>
+  <si>
+    <t>Nhấn "cập nhật"</t>
+  </si>
+  <si>
+    <t>Nhấn "xóa sách"</t>
+  </si>
+  <si>
+    <t>Chọn sách không đang mượn</t>
+  </si>
+  <si>
+    <t>Xóa sách được chọn</t>
+  </si>
+  <si>
+    <t>Nhấn "Kểm tra"</t>
+  </si>
+  <si>
+    <t>Thông báo mã sách không tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập mã sách tồn tại</t>
+  </si>
+  <si>
+    <t>Nhấn "kiểm tra"</t>
+  </si>
+  <si>
+    <t>Hiện thông tin sách có mã được chọn</t>
   </si>
 </sst>
 </file>
@@ -274,12 +403,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -381,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -450,6 +591,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +937,7 @@
   <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -972,11 +1162,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="B12:B14"/>
@@ -984,11 +1174,11 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1239,6 +1429,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E8"/>
@@ -1255,9 +1448,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1660,42 +1850,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="F37:F39"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="F40:F43"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1705,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -2128,6 +2318,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E40"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D44"/>
@@ -2137,36 +2357,6 @@
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2174,26 +2364,1016 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="21"/>
+      <c r="C6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="21"/>
+      <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="22"/>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="21"/>
+      <c r="C10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="21"/>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="22"/>
+      <c r="C12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="20">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="21"/>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="21"/>
+      <c r="C15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="22"/>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="20">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="21"/>
+      <c r="C18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21"/>
+      <c r="C19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="21"/>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="30">
+        <v>5</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="30"/>
+      <c r="C22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="30"/>
+      <c r="C23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="30"/>
+      <c r="C24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="30">
+        <v>6</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="30"/>
+      <c r="C26" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="30"/>
+      <c r="C27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="30"/>
+      <c r="C28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="20">
+        <v>7</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="21"/>
+      <c r="C30" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="22"/>
+      <c r="C31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="20">
+        <v>8</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="21"/>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="22"/>
+      <c r="C34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="20">
+        <v>9</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="21"/>
+      <c r="C36" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="22"/>
+      <c r="C37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="20">
+        <v>10</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="22"/>
+      <c r="C39" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="20">
+        <v>11</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="22"/>
+      <c r="C41" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="30">
+        <v>12</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="30"/>
+      <c r="C43" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="30">
+        <v>13</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="30"/>
+      <c r="C45" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="32">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="32">
+        <v>4</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="32">
+        <v>6</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="41"/>
+      <c r="C17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="41">
+        <v>8</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="32">
+        <v>9</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="32">
+        <v>10</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="42">
+        <v>11</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="42">
+        <v>12</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="42">
+        <v>13</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="42">
+        <v>14</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="42">
+        <v>15</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="42">
+        <v>16</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="42">
+        <v>17</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="51"/>
+      <c r="C37" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="45"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="51">
+        <v>18</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="42">
+        <v>19</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="45"/>
+      <c r="C41" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="42">
+        <v>20</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="45"/>
+      <c r="C43" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>